--- a/test_data/railway_od_pairs.xlsx
+++ b/test_data/railway_od_pairs.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:T5304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -530,7 +530,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -543,7 +543,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -556,7 +556,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -569,7 +569,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -582,7 +582,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -595,7 +595,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -608,7 +608,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -621,7 +621,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -634,7 +634,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -657,7 +657,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -680,7 +680,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -703,7 +703,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -726,7 +726,7 @@
         <v>1234627.5714285714</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -749,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="7"/>
@@ -772,7 +772,7 @@
         <v>316759</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -795,7 +795,7 @@
         <v>316759</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -818,7 +818,7 @@
         <v>316759</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -841,7 +841,7 @@
         <v>316759</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -864,7 +864,7 @@
         <v>316759</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -877,7 +877,7 @@
         <v>316759</v>
       </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -890,7 +890,7 @@
         <v>316759</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -903,7 +903,7 @@
         <v>316759</v>
       </c>
       <c r="C24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -916,7 +916,7 @@
         <v>316759</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -929,7 +929,7 @@
         <v>316759</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -942,7 +942,7 @@
         <v>316759</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -955,7 +955,7 @@
         <v>316759</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -968,7 +968,7 @@
         <v>316759</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -981,7 +981,7 @@
         <v>316759</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -994,7 +994,7 @@
         <v>316759</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1007,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="7"/>
